--- a/Documentation/jwtauth-project-plan.xlsx
+++ b/Documentation/jwtauth-project-plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e242afc395d22f1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\JwtAuth\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{EA8B9FA5-04C4-4645-AEBF-19CA505F85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B8376B-9150-445C-B7C9-886288BA9F85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31CF4E-9586-4229-848B-45218AF577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{90926BA7-FADE-4756-91C2-609B736D4DEF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$D$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Project</t>
   </si>
@@ -146,13 +146,19 @@
     <t>Add Fluent Validation nuget package to the project</t>
   </si>
   <si>
-    <t>Add database create script and er diagram to solution (or, does it belong in web since that is where data access is…?)</t>
-  </si>
-  <si>
     <t>Add app architecture documents to the solution</t>
   </si>
   <si>
     <t>Test api endpoints with postman</t>
+  </si>
+  <si>
+    <t>Add database create script and er diagram to solution</t>
+  </si>
+  <si>
+    <t>Refactor api endpoints</t>
+  </si>
+  <si>
+    <t>Copy dtos and validation from web project, fix namespaces</t>
   </si>
 </sst>
 </file>
@@ -299,10 +305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,14 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B3:D33"/>
+  <dimension ref="B3:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -652,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -663,7 +664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -674,7 +675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -696,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -707,7 +708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -718,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -729,7 +730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -740,7 +741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
@@ -751,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
@@ -762,7 +763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
@@ -773,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -784,7 +785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -795,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
@@ -806,7 +807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -817,7 +818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
@@ -828,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -839,7 +840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
@@ -850,7 +851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
@@ -861,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
@@ -872,7 +873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -883,98 +884,123 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="6" t="s">
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="8" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="4" t="s">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D33" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Misc"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:D35" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/jwtauth-project-plan.xlsx
+++ b/Documentation/jwtauth-project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\JwtAuth\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31CF4E-9586-4229-848B-45218AF577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A83706-3651-4E4E-9C15-D0FD0784F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{90926BA7-FADE-4756-91C2-609B736D4DEF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$D$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>Project</t>
   </si>
@@ -119,9 +119,6 @@
     <t>MAUI</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -159,6 +156,90 @@
   </si>
   <si>
     <t>Copy dtos and validation from web project, fix namespaces</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Add community toolkit nuget packages to project</t>
+  </si>
+  <si>
+    <t>Set up community toolkit in mauiprogram.cs</t>
+  </si>
+  <si>
+    <t>Set up appshell in mauiprogram.cs</t>
+  </si>
+  <si>
+    <t>Create project, with dependency on data client project; targeting windows desktop only</t>
+  </si>
+  <si>
+    <t>Create and implement Add Role page</t>
+  </si>
+  <si>
+    <t>Create and implement Add Role page model</t>
+  </si>
+  <si>
+    <t>Update nav visibility based on if a user is logged in</t>
+  </si>
+  <si>
+    <t>Usability refinements</t>
+  </si>
+  <si>
+    <t>Add Add Role page to shell nav</t>
+  </si>
+  <si>
+    <t>Add static CurrentUser class</t>
+  </si>
+  <si>
+    <t>Create and implement modal user detail page</t>
+  </si>
+  <si>
+    <t>Create and implement modal user detail page model</t>
+  </si>
+  <si>
+    <t>Create and implement login page</t>
+  </si>
+  <si>
+    <t>Create and implement login page model</t>
+  </si>
+  <si>
+    <t>Add login page to shell nav</t>
+  </si>
+  <si>
+    <t>Create and implement logout page</t>
+  </si>
+  <si>
+    <t>Create and implement logout page model</t>
+  </si>
+  <si>
+    <t>Add logout page to shell nav</t>
+  </si>
+  <si>
+    <t>Create and implement register page</t>
+  </si>
+  <si>
+    <t>Create and implement register page model</t>
+  </si>
+  <si>
+    <t>Add register page to shell nav</t>
+  </si>
+  <si>
+    <t>Create and implement modal change user password page</t>
+  </si>
+  <si>
+    <t>Create and implement modal change user password page model</t>
+  </si>
+  <si>
+    <t>Create and implement modal change user roles page</t>
+  </si>
+  <si>
+    <t>Create and implement modal change user roles page model</t>
+  </si>
+  <si>
+    <t>Create and implement modal update profile page</t>
+  </si>
+  <si>
+    <t>Create and implement modal update profile page model</t>
   </si>
 </sst>
 </file>
@@ -197,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,31 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,28 +325,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE2D5"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -624,13 +689,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}">
-  <dimension ref="B3:D35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B3:D62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -653,354 +719,626 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D32" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D35" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}"/>
+  <autoFilter ref="B3:D62" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/jwtauth-project-plan.xlsx
+++ b/Documentation/jwtauth-project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\JwtAuth\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A83706-3651-4E4E-9C15-D0FD0784F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225630B3-D88F-413E-A20D-56A342F14454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{90926BA7-FADE-4756-91C2-609B736D4DEF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="67">
   <si>
     <t>Project</t>
   </si>
@@ -325,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -338,7 +338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +694,10 @@
   <dimension ref="B3:D62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,61 +1160,73 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D45" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="4" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1235,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1244,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1253,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="4" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1262,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1271,7 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="4" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1280,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="4" t="s">
         <v>25</v>
       </c>
@@ -1276,7 +1289,7 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="4" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1298,7 @@
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="4" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1307,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="4" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1316,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="4" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1325,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="4" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1334,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
@@ -1332,9 +1345,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:D62" xr:uid="{C33C3F01-8269-4E57-9749-99DE44E2CF5B}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
